--- a/src/recursos/productosJSON.xlsx
+++ b/src/recursos/productosJSON.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juane\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juane\Documents\Repositorios_git\grupo_1_candyShop\src\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD2DD81E-35D4-46B8-ACAC-A1EC7B0A41EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9437E355-FFE3-408E-953E-A418F5D1A15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1BAFA62-1AB6-4254-934E-F4D737B5657E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -153,6 +153,69 @@
   </si>
   <si>
     <t>Chocolate Cadbury</t>
+  </si>
+  <si>
+    <t>imgProducto</t>
+  </si>
+  <si>
+    <t>Chocolate Cofler</t>
+  </si>
+  <si>
+    <t>Chocolate Kinder</t>
+  </si>
+  <si>
+    <t>Chocolate Milka</t>
+  </si>
+  <si>
+    <t>Caramelos Sugus</t>
+  </si>
+  <si>
+    <t>Gomita Mogul Tiburoncito</t>
+  </si>
+  <si>
+    <t>Gomita Mogul Piecitos</t>
+  </si>
+  <si>
+    <t>Gomita Mogul Ositos</t>
+  </si>
+  <si>
+    <t>Gomita Mogul Cocodrilo</t>
+  </si>
+  <si>
+    <t>Caramelos Flyn Paff</t>
+  </si>
+  <si>
+    <t>Caramelos Palitos Selva</t>
+  </si>
+  <si>
+    <t>Caramelos Pico Dulce</t>
+  </si>
+  <si>
+    <t>Alfajor Bonobon Chocolate</t>
+  </si>
+  <si>
+    <t>Alfajor Bagley Bagley</t>
+  </si>
+  <si>
+    <t>Alfajor Oreo Oreo</t>
+  </si>
+  <si>
+    <t>Alfajor Suchard Alf</t>
+  </si>
+  <si>
+    <t>Alfajor Terrabusi Simple</t>
+  </si>
+  <si>
+    <t>Caramelos Lenguetazo</t>
+  </si>
+  <si>
+    <t>Gomita Mogul Ositos Extreme</t>
+  </si>
+  <si>
+    <t>precioOfertaMinorista</t>
+  </si>
+  <si>
+    <t>precioOfertaMayorista</t>
   </si>
 </sst>
 </file>
@@ -162,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +268,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +294,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,22 +326,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -269,8 +349,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bueno" xfId="4" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,29 +676,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E312A16D-EB55-43BC-A333-711D52B9CA88}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -620,33 +713,42 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="M1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -658,33 +760,44 @@
       <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="6">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>10</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="8">
-        <v>11.7</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L2" s="8">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="F2" s="9">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H2" s="14">
+        <f>+F2*G2</f>
+        <v>18.2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="15">
+        <f>+F2*I2</f>
+        <v>16.8</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M2" s="16">
+        <f>+H2*L2</f>
+        <v>16.38</v>
+      </c>
+      <c r="N2" s="15">
+        <f>+J2*L2</f>
+        <v>15.120000000000001</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -696,462 +809,923 @@
       <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="6">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H21" si="0">+F3*G3</f>
+        <v>19.5</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J21" si="1">+F3*I3</f>
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="12">
+        <v>1</v>
+      </c>
+      <c r="M3" s="16">
+        <f t="shared" ref="M3:M21" si="2">+H3*L3</f>
+        <v>19.5</v>
+      </c>
+      <c r="N3" s="15">
+        <f t="shared" ref="N3:N21" si="3">+J3*L3</f>
+        <v>18</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J3" s="8">
-        <v>13</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="E4" s="6">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" si="0"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="I4" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="12">
+        <v>1</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" si="2"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="N4" s="15">
+        <f t="shared" si="3"/>
+        <v>15.6</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="E5" s="6">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="2"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="E6" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="F6" s="9">
+        <v>13</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="I6" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="1"/>
+        <v>15.6</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="12">
+        <v>1</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="2"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="N6" s="15">
+        <f t="shared" si="3"/>
+        <v>15.6</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="E7" s="6">
+        <v>5</v>
+      </c>
+      <c r="F7" s="9">
+        <v>30</v>
+      </c>
+      <c r="G7" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I7" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="2"/>
+        <v>35.1</v>
+      </c>
+      <c r="N7" s="15">
+        <f t="shared" si="3"/>
+        <v>32.4</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N8" s="15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>30</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N10" s="15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="9">
+        <v>30</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="I11" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8</v>
+      </c>
+      <c r="G12" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="I12" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="2"/>
+        <v>9.3600000000000012</v>
+      </c>
+      <c r="N12" s="15">
+        <f t="shared" si="3"/>
+        <v>8.64</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="I13" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+      <c r="N13" s="15">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J14" s="8"/>
-      <c r="K14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="I14" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+      <c r="N14" s="15">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="K15" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="G15" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+      <c r="N15" s="15">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9">
+        <v>8</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>10.4</v>
+      </c>
+      <c r="I16" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="2"/>
+        <v>10.4</v>
+      </c>
+      <c r="N16" s="15">
+        <f t="shared" si="3"/>
+        <v>9.6</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="E17" s="6">
+        <v>6</v>
+      </c>
+      <c r="F17" s="9">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I17" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="12">
+        <v>0.9</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="2"/>
+        <v>14.040000000000001</v>
+      </c>
+      <c r="N17" s="15">
+        <f t="shared" si="3"/>
+        <v>12.959999999999999</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="E18" s="6">
+        <v>6</v>
+      </c>
+      <c r="F18" s="9">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I18" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="2"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N18" s="15">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="E19" s="6">
+        <v>6</v>
+      </c>
+      <c r="F19" s="9">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I19" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="2"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="E20" s="6">
+        <v>6</v>
+      </c>
+      <c r="F20" s="9">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="2"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N20" s="15">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="L21" s="8"/>
+      <c r="E21" s="6">
+        <v>6</v>
+      </c>
+      <c r="F21" s="9">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1.2</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="2"/>
+        <v>15.600000000000001</v>
+      </c>
+      <c r="N21" s="15">
+        <f t="shared" si="3"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="O21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
